--- a/data/data-education-modified/ks2-results-modified.xlsx
+++ b/data/data-education-modified/ks2-results-modified.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project 2\Education Results\Modified Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fergu\Documents\Work\Ironhack\Projects\Mini-project-2\Mini-project-London\Education Data\Modified Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="153">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -855,6 +855,15 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,15 +918,6 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Currency 3" xfId="1"/>
@@ -1459,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -1501,124 +1501,124 @@
     <row r="1" spans="1:47" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="43" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="43" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="50"/>
     </row>
     <row r="2" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="46" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="54" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="40" t="s">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="40" t="s">
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="42"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="47"/>
     </row>
     <row r="3" spans="1:47" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -8401,124 +8401,124 @@
     <row r="1" spans="1:47" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="43" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="43" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="50"/>
     </row>
     <row r="2" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="46" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="54" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="40" t="s">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="40" t="s">
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="42"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="47"/>
     </row>
     <row r="3" spans="1:47" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -15281,124 +15281,124 @@
     <row r="1" spans="1:47" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="43" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="43" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="50"/>
     </row>
     <row r="2" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="46" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="40" t="s">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="51"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="56"/>
     </row>
     <row r="3" spans="1:47" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -22339,7 +22339,7 @@
   <dimension ref="A1:AU70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22359,124 +22359,124 @@
     <row r="1" spans="1:47" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="43" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="43" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="50"/>
     </row>
     <row r="2" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="46" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="40" t="s">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="51"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="56"/>
     </row>
     <row r="3" spans="1:47" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -29397,17 +29397,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y6:Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
       <c r="C1">
         <v>2016</v>
       </c>
@@ -29435,10 +29435,37 @@
       <c r="M1" t="s">
         <v>152</v>
       </c>
+      <c r="O1">
+        <v>2016</v>
+      </c>
+      <c r="P1">
+        <v>2017</v>
+      </c>
+      <c r="Q1">
+        <v>2018</v>
+      </c>
+      <c r="R1">
+        <v>2019</v>
+      </c>
+      <c r="U1">
+        <v>2016</v>
+      </c>
+      <c r="V1">
+        <v>2017</v>
+      </c>
+      <c r="W1">
+        <v>2018</v>
+      </c>
+      <c r="X1">
+        <v>2019</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" t="s">
         <v>151</v>
       </c>
@@ -29451,20 +29478,32 @@
       <c r="F2" t="s">
         <v>151</v>
       </c>
+      <c r="O2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -29472,7 +29511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -29499,19 +29538,19 @@
         <f ca="1">IFERROR(AVERAGE(C6:F6),"")</f>
         <v>77.621050912505609</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="44">
         <f ca="1">INDEX(INDIRECT("'"&amp;I$1&amp;"'!L6:L52"),ROW()-5)</f>
         <v>58</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="44">
         <f t="shared" ref="J6:L21" ca="1" si="1">INDEX(INDIRECT("'"&amp;J$1&amp;"'!L6:L52"),ROW()-5)</f>
         <v>63</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>65.618748213775405</v>
       </c>
@@ -29519,8 +29558,48 @@
         <f ca="1">AVERAGE(I6:L6)</f>
         <v>63.404687053443851</v>
       </c>
+      <c r="O6">
+        <f ca="1">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;O$1&amp;"'!M6:P53"),ROW()-5,0)),"")</f>
+        <v>20.25</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:R21" ca="1" si="2">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;P$1&amp;"'!M6:P53"),ROW()-5,0)),"")</f>
+        <v>25.5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.75</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="2"/>
+        <v>30.05128199893845</v>
+      </c>
+      <c r="S6">
+        <f ca="1">IFERROR(AVERAGE(O6:R6),"")</f>
+        <v>26.137820499734612</v>
+      </c>
+      <c r="U6" s="44">
+        <f ca="1">INDEX(INDIRECT("'"&amp;U$1&amp;"'!Q6:Q52"),ROW()-5)</f>
+        <v>6</v>
+      </c>
+      <c r="V6" s="44">
+        <f t="shared" ref="V6:X21" ca="1" si="3">INDEX(INDIRECT("'"&amp;V$1&amp;"'!Q6:Q52"),ROW()-5)</f>
+        <v>8</v>
+      </c>
+      <c r="W6" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="X6" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.231780508716801</v>
+      </c>
+      <c r="Y6">
+        <f ca="1">AVERAGE(U6:X6)</f>
+        <v>8.5579451271792006</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -29528,7 +29607,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F53" ca="1" si="2">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;C$1&amp;"'!H6:K53"),ROW()-5,0)),"")</f>
+        <f t="shared" ref="C7:F52" ca="1" si="4">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;C$1&amp;"'!H6:K53"),ROW()-5,0)),"")</f>
         <v>75.75</v>
       </c>
       <c r="D7">
@@ -29544,31 +29623,71 @@
         <v>83.539306649404807</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G53" ca="1" si="3">IFERROR(AVERAGE(C7:F7),"")</f>
+        <f t="shared" ref="G7:G52" ca="1" si="5">IFERROR(AVERAGE(C7:F7),"")</f>
         <v>80.822326662351202</v>
       </c>
-      <c r="I7" s="62">
-        <f t="shared" ref="I7:L53" ca="1" si="4">INDEX(INDIRECT("'"&amp;I$1&amp;"'!L6:L52"),ROW()-5)</f>
+      <c r="I7" s="44">
+        <f t="shared" ref="I7:L52" ca="1" si="6">INDEX(INDIRECT("'"&amp;I$1&amp;"'!L6:L52"),ROW()-5)</f>
         <v>59</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>69</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>73.357228195937907</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M52" ca="1" si="5">AVERAGE(I7:L7)</f>
+        <f t="shared" ref="M7:M52" ca="1" si="7">AVERAGE(I7:L7)</f>
         <v>68.58930704898448</v>
       </c>
+      <c r="O7">
+        <f t="shared" ref="O7:R52" ca="1" si="8">IFERROR(AVERAGE(INDEX(INDIRECT("'"&amp;O$1&amp;"'!M6:P53"),ROW()-5,0)),"")</f>
+        <v>24.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="2"/>
+        <v>33.5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="2"/>
+        <v>35.237811251135248</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S52" ca="1" si="9">IFERROR(AVERAGE(O7:R7),"")</f>
+        <v>31.05945281278381</v>
+      </c>
+      <c r="U7" s="44">
+        <f t="shared" ref="U7:X37" ca="1" si="10">INDEX(INDIRECT("'"&amp;U$1&amp;"'!Q6:Q52"),ROW()-5)</f>
+        <v>8</v>
+      </c>
+      <c r="V7" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="W7" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="X7" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.814814814814801</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y37" ca="1" si="11">AVERAGE(U7:X7)</f>
+        <v>11.453703703703701</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -29576,7 +29695,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.75</v>
       </c>
       <c r="D8">
@@ -29592,31 +29711,71 @@
         <v>80.88732943903608</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78.90933235975902</v>
       </c>
-      <c r="I8" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I8" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>59</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>69.589774078478001</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>65.8974435196195</v>
       </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.75</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.75</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ca="1" si="2"/>
+        <v>32.141305338479576</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.285326334619896</v>
+      </c>
+      <c r="U8" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V8" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="W8" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="X8" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.179548156956001</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.294887039239001</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -29624,7 +29783,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>72.5</v>
       </c>
       <c r="D9">
@@ -29640,31 +29799,71 @@
         <v>80.431811970483722</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>76.357952992620937</v>
       </c>
-      <c r="I9" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I9" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>55</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>67.942060672314796</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>61.735515168078699</v>
       </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.25</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.25</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.135556162886047</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.658889040721512</v>
+      </c>
+      <c r="U9" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V9" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="W9" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="X9" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.7406395189943</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.435159879748575</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -29672,7 +29871,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80.5</v>
       </c>
       <c r="D10">
@@ -29688,31 +29887,71 @@
         <v>83.813932887800917</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>83.265983221950222</v>
       </c>
-      <c r="I10" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I10" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>76</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>74.525020069574495</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>73.131255017393627</v>
       </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="2"/>
+        <v>34.75</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="2"/>
+        <v>35.75</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="2"/>
+        <v>35.64263013868085</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="9"/>
+        <v>32.910657534670214</v>
+      </c>
+      <c r="U10" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="V10" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="W10" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="X10" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.527428418517498</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ca="1" si="11"/>
+        <v>14.631857104629375</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -29720,7 +29959,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76.5</v>
       </c>
       <c r="D11">
@@ -29736,31 +29975,71 @@
         <v>83.230117340286824</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>80.620029335071706</v>
       </c>
-      <c r="I11" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I11" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>73.207301173402897</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>68.301825293350731</v>
       </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.25</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="2"/>
+        <v>33.5</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ca="1" si="2"/>
+        <v>35.283572359843525</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.383393089960883</v>
+      </c>
+      <c r="U11" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="V11" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="W11" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="X11" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.9061277705345</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ca="1" si="11"/>
+        <v>12.476531942633624</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -29768,7 +30047,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>72.25</v>
       </c>
       <c r="D12">
@@ -29784,31 +30063,71 @@
         <v>78.238146551724114</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>76.684536637931032</v>
       </c>
-      <c r="I12" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I12" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>55</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>67</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>66.637931034482804</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>63.159482758620697</v>
       </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="8"/>
+        <v>19.25</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.283405172413801</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.008351293103452</v>
+      </c>
+      <c r="U12" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V12" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W12" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="X12" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.0258620689655</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.7564655172413755</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -29816,7 +30135,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>73</v>
       </c>
       <c r="D13">
@@ -29832,31 +30151,71 @@
         <v>82.459677419354833</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78.802419354838705</v>
       </c>
-      <c r="I13" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I13" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>54</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>71.082949308755801</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>64.520737327188954</v>
       </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="8"/>
+        <v>19.75</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="2"/>
+        <v>34.003456221198149</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.688364055299537</v>
+      </c>
+      <c r="U13" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V13" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="W13" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="X13" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.488479262672801</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ca="1" si="11"/>
+        <v>10.622119815668199</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -29864,7 +30223,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>71.25</v>
       </c>
       <c r="D14">
@@ -29880,31 +30239,71 @@
         <v>78.355903312845129</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75.276475828211289</v>
       </c>
-      <c r="I14" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I14" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>52</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>66.702539819199302</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>61.175634954799825</v>
       </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.579354979874452</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.519838744968613</v>
+      </c>
+      <c r="U14" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="V14" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="W14" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="X14" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.9556607834697</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.488915195867424</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -29912,7 +30311,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78</v>
       </c>
       <c r="D15">
@@ -29928,31 +30327,71 @@
         <v>82.247183779922807</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>80.624295944980702</v>
       </c>
-      <c r="I15" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I15" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>64</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>72.775800711743798</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>69.443950177935946</v>
       </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.75</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="2"/>
+        <v>35.245458931948221</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.623864732987055</v>
+      </c>
+      <c r="U15" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="V15" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="W15" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="X15" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.0355871886121</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ca="1" si="11"/>
+        <v>12.758896797153024</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -29960,7 +30399,7 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>77.75</v>
       </c>
       <c r="D16">
@@ -29976,31 +30415,71 @@
         <v>77.72022321170688</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>79.805055802926717</v>
       </c>
-      <c r="I16" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I16" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>64</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>65.706605222734296</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>68.176651305683578</v>
       </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="8"/>
+        <v>21.75</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.25</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.890149813793776</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="9"/>
+        <v>27.972537453448446</v>
+      </c>
+      <c r="U16" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="V16" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="W16" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="X16" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.5576036866359</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.889400921658975</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -30008,7 +30487,7 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.25</v>
       </c>
       <c r="D17">
@@ -30024,31 +30503,71 @@
         <v>82.509433962264154</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>82.189858490566039</v>
       </c>
-      <c r="I17" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I17" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>74</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>74</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>73.056603773584897</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>70.514150943396231</v>
       </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.75</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="2"/>
+        <v>34.75</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="2"/>
+        <v>36.25</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.094339622641499</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ca="1" si="9"/>
+        <v>32.711084905660371</v>
+      </c>
+      <c r="U17" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="V17" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="W17" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="X17" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.4150943396226</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ca="1" si="11"/>
+        <v>13.10377358490565</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -30056,7 +30575,7 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>74</v>
       </c>
       <c r="D18">
@@ -30072,31 +30591,71 @@
         <v>78.794381146053823</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>77.511095286513452</v>
       </c>
-      <c r="I18" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I18" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>56</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>65.959530026109704</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>63.239882506527422</v>
       </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.25</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.75</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.130583923663103</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.907645980915774</v>
+      </c>
+      <c r="U18" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="V18" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="W18" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="X18" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.425587467362901</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ca="1" si="11"/>
+        <v>12.606396866840726</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -30104,7 +30663,7 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>77.5</v>
       </c>
       <c r="D19">
@@ -30120,31 +30679,71 @@
         <v>85.107867778289986</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>82.589466944572493</v>
       </c>
-      <c r="I19" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I19" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>73.806275579808997</v>
       </c>
       <c r="M19">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>69.701568894952246</v>
       </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.25</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="2"/>
+        <v>33.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.878597336885747</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="9"/>
+        <v>33.407149334221437</v>
+      </c>
+      <c r="U19" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V19" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="W19" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="X19" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.450204638472</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.862551159618</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -30152,7 +30751,7 @@
         <v>34</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.5</v>
       </c>
       <c r="D20">
@@ -30168,31 +30767,71 @@
         <v>82.215043074884022</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>81.241260768721006</v>
       </c>
-      <c r="I20" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I20" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>70</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>71.537442014579199</v>
       </c>
       <c r="M20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>69.1343605036448</v>
       </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="8"/>
+        <v>21.75</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="2"/>
+        <v>30.5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ca="1" si="2"/>
+        <v>30.334658714380375</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.146164678595092</v>
+      </c>
+      <c r="U20" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V20" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="W20" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="X20" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.9284294234592</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ca="1" si="11"/>
+        <v>10.2321073558648</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -30200,7 +30839,7 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.25</v>
       </c>
       <c r="D21">
@@ -30216,31 +30855,71 @@
         <v>81.221168631471016</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78.680292157867754</v>
       </c>
-      <c r="I21" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I21" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>57</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>68.631471040492102</v>
       </c>
       <c r="M21">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>63.907867760123025</v>
       </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.75</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ca="1" si="2"/>
+        <v>32.54100461301897</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.572751153254742</v>
+      </c>
+      <c r="U21" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="V21" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W21" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="X21" s="44">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.3013839056894</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ca="1" si="11"/>
+        <v>10.32534597642235</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -30248,47 +30927,87 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.5</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.812726107516724</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>79.828181526879177</v>
       </c>
-      <c r="I22" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I22" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>59</v>
       </c>
-      <c r="J22" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J22" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>66</v>
       </c>
-      <c r="K22" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K22" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
-      <c r="L22" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L22" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69.504830917874401</v>
       </c>
       <c r="M22">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>66.126207729468604</v>
       </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.75</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.75</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ca="1" si="8"/>
+        <v>35.325038896690124</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ca="1" si="9"/>
+        <v>31.268759724172533</v>
+      </c>
+      <c r="U22" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="V22" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W22" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="X22" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15.6400966183575</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ca="1" si="11"/>
+        <v>13.410024154589376</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -30296,47 +31015,87 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.5</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>79.25</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>79.798363683257406</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>78.137090920814359</v>
       </c>
-      <c r="I23" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I23" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>57</v>
       </c>
-      <c r="J23" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J23" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>66</v>
       </c>
-      <c r="K23" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K23" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
-      <c r="L23" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L23" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69.732002101944303</v>
       </c>
       <c r="M23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>65.433000525486079</v>
       </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.25</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.463975240089201</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ca="1" si="9"/>
+        <v>29.053493810022299</v>
+      </c>
+      <c r="U23" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="V23" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="W23" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="X23" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>14.713610089332599</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ca="1" si="11"/>
+        <v>13.428402522333149</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -30344,47 +31103,87 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>83.75</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>87.5</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>86.25</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>85.906217070600619</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>85.851554267650158</v>
       </c>
-      <c r="I24" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I24" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
-      <c r="J24" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J24" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
-      <c r="K24" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K24" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
-      <c r="L24" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L24" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>77.028451001053696</v>
       </c>
       <c r="M24">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>74.757112750263417</v>
       </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="8"/>
+        <v>30.5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ca="1" si="8"/>
+        <v>39.5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ca="1" si="8"/>
+        <v>41.25</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ca="1" si="8"/>
+        <v>43.150684931506852</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ca="1" si="9"/>
+        <v>38.600171232876711</v>
+      </c>
+      <c r="U24" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="V24" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="W24" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="X24" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>20.653319283456302</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ca="1" si="11"/>
+        <v>17.913329820864075</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -30392,47 +31191,87 @@
         <v>44</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76.5</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80.5</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>82</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>82.223684210526301</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>80.305921052631575</v>
       </c>
-      <c r="I25" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I25" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
-      <c r="J25" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J25" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>65</v>
       </c>
-      <c r="K25" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K25" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
-      <c r="L25" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L25" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69.736842105263193</v>
       </c>
       <c r="M25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>66.434210526315795</v>
       </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.75</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.75</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.25</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ca="1" si="8"/>
+        <v>35.855263157894726</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ca="1" si="9"/>
+        <v>31.151315789473681</v>
+      </c>
+      <c r="U25" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="V25" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="W25" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="X25" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15.3157894736842</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ca="1" si="11"/>
+        <v>12.32894736842105</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
@@ -30440,47 +31279,87 @@
         <v>46</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.25</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>82.5</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.75</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.681634736600103</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>81.045408684150033</v>
       </c>
-      <c r="I26" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I26" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-      <c r="J26" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J26" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
-      <c r="K26" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K26" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
-      <c r="L26" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L26" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>71.079564212611402</v>
       </c>
       <c r="M26">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>68.269891053152847</v>
       </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.295704232027695</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.636426058006926</v>
+      </c>
+      <c r="U26" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="V26" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="W26" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="X26" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13.1396500495213</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.034912512380325</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -30488,47 +31367,87 @@
         <v>48</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>73</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.25</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>79.5</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.861671469740656</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>76.652917867435164</v>
       </c>
-      <c r="I27" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I27" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>56</v>
       </c>
-      <c r="J27" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J27" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-      <c r="K27" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K27" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
-      <c r="L27" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L27" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>67.752161383285298</v>
       </c>
       <c r="M27">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>63.688040345821321</v>
       </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="8"/>
+        <v>19.75</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.25</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.753602305475496</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ca="1" si="9"/>
+        <v>25.813400576368874</v>
+      </c>
+      <c r="U27" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V27" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="W27" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="X27" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.9423631123919307</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.9855907780979827</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -30536,47 +31455,87 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>74.25</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>79.5</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.5</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.855714906562383</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>79.276428726640603</v>
       </c>
-      <c r="I28" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I28" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>57</v>
       </c>
-      <c r="J28" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J28" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>66</v>
       </c>
-      <c r="K28" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K28" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
-      <c r="L28" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L28" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69.274228596262503</v>
       </c>
       <c r="M28">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>65.318557149065626</v>
       </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.25</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.75</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.5</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.061277705345496</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.140319426336376</v>
+      </c>
+      <c r="U28" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="V28" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="W28" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="X28" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13.515862668404999</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.12896566710125</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -30584,47 +31543,87 @@
         <v>52</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.75</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>82.25</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>85.5</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>84.87396082236917</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>82.843490205592289</v>
       </c>
-      <c r="I29" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I29" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-      <c r="J29" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J29" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
-      <c r="K29" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K29" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
-      <c r="L29" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L29" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>75.783056548244701</v>
       </c>
       <c r="M29">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>70.945764137061175</v>
       </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.25</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="8"/>
+        <v>36.25</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ca="1" si="8"/>
+        <v>37.229908084470026</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ca="1" si="9"/>
+        <v>32.182477021117506</v>
+      </c>
+      <c r="U29" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="V29" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="W29" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="X29" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15.6190876602901</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.654771915072525</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -30632,47 +31631,87 @@
         <v>54</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80.5</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>82.5</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>83.943886302376853</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>80.48597157559422</v>
       </c>
-      <c r="I30" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I30" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>58</v>
       </c>
-      <c r="J30" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J30" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
-      <c r="K30" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K30" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
-      <c r="L30" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L30" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>73.192844890958099</v>
       </c>
       <c r="M30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>67.298211222739525</v>
       </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.25</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.75</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ca="1" si="8"/>
+        <v>37.797108551825552</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ca="1" si="9"/>
+        <v>32.324277137956386</v>
+      </c>
+      <c r="U30" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="V30" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="W30" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="X30" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>16.711590296495999</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ca="1" si="11"/>
+        <v>13.177897574124</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -30680,239 +31719,439 @@
         <v>56</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.25</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>86.75</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>88.75</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>89.617545375972341</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>86.591886343993082</v>
       </c>
-      <c r="I31" s="62">
+      <c r="I31" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="J31" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="K31" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="L31" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>80.985306828003502</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="7"/>
+        <v>76.246326707000875</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="8"/>
+        <v>40.25</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="8"/>
+        <v>44.25</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ca="1" si="8"/>
+        <v>44.457649092480551</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="9"/>
+        <v>40.114412273120138</v>
+      </c>
+      <c r="U31" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="V31" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="W31" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="X31" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>21.305099394987</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ca="1" si="11"/>
+        <v>17.576274848746749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="J31" s="62">
+        <v>74.25</v>
+      </c>
+      <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
-      </c>
-      <c r="K31" s="62">
+        <v>77.75</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="4"/>
+        <v>79.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="4"/>
+        <v>79.781954887218035</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="5"/>
+        <v>77.820488721804509</v>
+      </c>
+      <c r="I32" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="J32" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="K32" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="L32" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>68.210526315789494</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="7"/>
+        <v>64.80263157894737</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.25</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.75</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ca="1" si="8"/>
+        <v>30.270676691729349</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.442669172932337</v>
+      </c>
+      <c r="U32" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="V32" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="W32" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="X32" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12.451127819548899</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" ca="1" si="11"/>
+        <v>10.112781954887225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>79.25</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="4"/>
+        <v>83.293397721666764</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="5"/>
+        <v>82.385849430416698</v>
+      </c>
+      <c r="I33" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="J33" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="K33" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="L33" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.685571309424503</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="7"/>
+        <v>70.921392827356129</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="8"/>
+        <v>38.5</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ca="1" si="8"/>
+        <v>38.049884212945273</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ca="1" si="9"/>
+        <v>34.887471053236318</v>
+      </c>
+      <c r="U33" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="V33" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="W33" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="X33" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>17.889908256880702</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ca="1" si="11"/>
+        <v>15.722477064220175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="4"/>
+        <v>80.5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="4"/>
+        <v>83.067188912322976</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="5"/>
+        <v>81.141797228080748</v>
+      </c>
+      <c r="I34" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="J34" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="K34" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="L34" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.431455257607695</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="7"/>
+        <v>68.607863814401924</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.75</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.75</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.5</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.888219343175649</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.472054835793912</v>
+      </c>
+      <c r="U34" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="V34" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="W34" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="X34" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13.5884302500753</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ca="1" si="11"/>
+        <v>10.647107562518825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="4"/>
+        <v>74.25</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="4"/>
+        <v>79.5</v>
+      </c>
+      <c r="E35">
         <f t="shared" ca="1" si="4"/>
         <v>81</v>
       </c>
-      <c r="L31" s="62">
+      <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>80.985306828003502</v>
-      </c>
-      <c r="M31">
+        <v>82.218203737191104</v>
+      </c>
+      <c r="G35">
         <f t="shared" ca="1" si="5"/>
-        <v>76.246326707000875</v>
+        <v>79.242050934297779</v>
+      </c>
+      <c r="I35" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="J35" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="K35" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="L35" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>71.910789632308607</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="7"/>
+        <v>66.727697408077148</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.5</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.079264617239275</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.644816154309819</v>
+      </c>
+      <c r="U35" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="V35" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="W35" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="X35" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>14.58710066305</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ca="1" si="11"/>
+        <v>11.3967751657625</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="2"/>
-        <v>74.25</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="2"/>
-        <v>77.75</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="2"/>
-        <v>79.5</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="2"/>
-        <v>79.781954887218035</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="3"/>
-        <v>77.820488721804509</v>
-      </c>
-      <c r="I32" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="J32" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="K32" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="L32" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>68.210526315789494</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="5"/>
-        <v>64.80263157894737</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="2"/>
-        <v>79.25</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>83.293397721666764</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="3"/>
-        <v>82.385849430416698</v>
-      </c>
-      <c r="I33" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="J33" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="K33" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>74</v>
-      </c>
-      <c r="L33" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>72.685571309424503</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="5"/>
-        <v>70.921392827356129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="2"/>
-        <v>80.5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="2"/>
-        <v>83.067188912322976</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="3"/>
-        <v>81.141797228080748</v>
-      </c>
-      <c r="I34" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="J34" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="K34" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="L34" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>72.431455257607695</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="5"/>
-        <v>68.607863814401924</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="2"/>
-        <v>74.25</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>79.5</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="2"/>
-        <v>82.218203737191104</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="3"/>
-        <v>79.242050934297779</v>
-      </c>
-      <c r="I35" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="J35" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="K35" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="L35" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>71.910789632308607</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="5"/>
-        <v>66.727697408077148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>65</v>
       </c>
@@ -30920,47 +32159,87 @@
         <v>66</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80.75</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.091211995002084</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>79.585302998750521</v>
       </c>
-      <c r="I36" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I36" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
-      <c r="J36" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J36" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
-      <c r="K36" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K36" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
-      <c r="L36" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L36" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70.428987921699303</v>
       </c>
       <c r="M36">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>67.857246980424833</v>
       </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.25</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="8"/>
+        <v>30.75</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.579341940858001</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.1448354852145</v>
+      </c>
+      <c r="U36" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="V36" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="W36" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="X36" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>15.576842982090801</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ca="1" si="11"/>
+        <v>12.644210745522701</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>67</v>
       </c>
@@ -30968,75 +32247,139 @@
         <v>68</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.25</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.75</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>83.75</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>82.475490196078425</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>80.806372549019613</v>
       </c>
-      <c r="I37" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I37" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>58</v>
       </c>
-      <c r="J37" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J37" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>68</v>
       </c>
-      <c r="K37" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K37" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>72</v>
       </c>
-      <c r="L37" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L37" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70.308123249299697</v>
       </c>
       <c r="M37">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>67.077030812324921</v>
       </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.25</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ca="1" si="8"/>
+        <v>30.75</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.75</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.998599439775923</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.187149859943979</v>
+      </c>
+      <c r="U37" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V37" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="W37" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="X37" s="44">
+        <f t="shared" ca="1" si="10"/>
+        <v>12.8851540616247</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ca="1" si="11"/>
+        <v>10.721288515406176</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="D38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="O38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
@@ -31044,47 +32387,87 @@
         <v>70</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76.75</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80.25</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.5</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.333036981503952</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>79.958259245375984</v>
       </c>
-      <c r="I39" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I39" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
-      <c r="J39" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J39" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>68</v>
       </c>
-      <c r="K39" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K39" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
-      <c r="L39" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L39" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70.557701593433094</v>
       </c>
       <c r="M39">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>67.38942539835827</v>
       </c>
+      <c r="O39">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.5</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.5</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.064272878628898</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ca="1" si="9"/>
+        <v>29.266068219657225</v>
+      </c>
+      <c r="U39" s="44">
+        <f t="shared" ref="U39:X52" ca="1" si="12">INDEX(INDIRECT("'"&amp;U$1&amp;"'!L6:L52"),ROW()-5)</f>
+        <v>60</v>
+      </c>
+      <c r="V39" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="W39" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="X39" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>70.557701593433094</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ref="Y39:Y40" ca="1" si="13">AVERAGE(U39:X39)</f>
+        <v>67.38942539835827</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -31092,75 +32475,139 @@
         <v>72</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.25</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>79.75</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.25</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.943534746255622</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>79.548383686563909</v>
       </c>
-      <c r="I40" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I40" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>59</v>
       </c>
-      <c r="J40" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J40" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
-      <c r="K40" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K40" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
-      <c r="L40" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L40" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70.735389260297595</v>
       </c>
       <c r="M40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>66.683847315074402</v>
       </c>
+      <c r="O40">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.75</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.25</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.966640338994473</v>
+      </c>
+      <c r="S40">
+        <f t="shared" ca="1" si="9"/>
+        <v>29.741660084748617</v>
+      </c>
+      <c r="U40" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="V40" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="W40" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="X40" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>70.735389260297595</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ca="1" si="13"/>
+        <v>66.683847315074402</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="D41" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="F41" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="G41" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="O41" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
@@ -31168,143 +32615,263 @@
         <v>74</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>73.25</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>77.5</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>79.5</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.58849270202785</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>77.209623175506962</v>
       </c>
-      <c r="I42" s="62">
+      <c r="I42" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="J42" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="K42" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="L42" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>66.846763233782994</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="7"/>
+        <v>64.211690808445752</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.25</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.5</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.272595952754202</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.50564898818855</v>
+      </c>
+      <c r="U42" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="V42" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="W42" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="X42" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>66.846763233782994</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42:Y50" ca="1" si="14">AVERAGE(U42:X42)</f>
+        <v>64.211690808445752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="J42" s="62">
+        <v>71</v>
+      </c>
+      <c r="D43">
         <f t="shared" ca="1" si="4"/>
+        <v>75.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="4"/>
+        <v>77.25</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="4"/>
+        <v>77.267650898389306</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="5"/>
+        <v>75.25441272459733</v>
+      </c>
+      <c r="I43" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="J43" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="K43" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>65</v>
       </c>
-      <c r="K42" s="62">
+      <c r="L43" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>64.560933438677296</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.890233359669324</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.75</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.184944849511474</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ca="1" si="9"/>
+        <v>22.85873621237787</v>
+      </c>
+      <c r="U43" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="V43" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="W43" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="X43" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>64.560933438677296</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.890233359669324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44">
         <f t="shared" ca="1" si="4"/>
         <v>68</v>
       </c>
-      <c r="L42" s="62">
+      <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>66.846763233782994</v>
-      </c>
-      <c r="M42">
+        <v>72.75</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="4"/>
+        <v>75.934758903432851</v>
+      </c>
+      <c r="G44">
         <f t="shared" ca="1" si="5"/>
-        <v>64.211690808445752</v>
+        <v>72.921189725858213</v>
+      </c>
+      <c r="I44" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J44" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="K44" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="L44" s="44">
+        <f t="shared" ca="1" si="6"/>
+        <v>63.438390999460601</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="7"/>
+        <v>58.359597749865152</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="8"/>
+        <v>15.75</v>
+      </c>
+      <c r="P44">
+        <f t="shared" ca="1" si="8"/>
+        <v>21.5</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.5</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.233096491985574</v>
+      </c>
+      <c r="S44">
+        <f t="shared" ca="1" si="9"/>
+        <v>21.745774122996394</v>
+      </c>
+      <c r="U44" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="V44" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>58</v>
+      </c>
+      <c r="W44" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="X44" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63.438390999460601</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" ca="1" si="14"/>
+        <v>58.359597749865152</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="2"/>
-        <v>75.5</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="2"/>
-        <v>77.25</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="2"/>
-        <v>77.267650898389306</v>
-      </c>
-      <c r="G43">
-        <f t="shared" ca="1" si="3"/>
-        <v>75.25441272459733</v>
-      </c>
-      <c r="I43" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="J43" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="K43" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="L43" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>64.560933438677296</v>
-      </c>
-      <c r="M43">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.890233359669324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="2"/>
-        <v>72.75</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="2"/>
-        <v>75.934758903432851</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ca="1" si="3"/>
-        <v>72.921189725858213</v>
-      </c>
-      <c r="I44" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J44" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="K44" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="L44" s="62">
-        <f t="shared" ca="1" si="4"/>
-        <v>63.438390999460601</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ca="1" si="5"/>
-        <v>58.359597749865152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
@@ -31312,47 +32879,87 @@
         <v>80</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>69.25</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>73.75</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.5</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76.105064377849899</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>73.651266094462471</v>
       </c>
-      <c r="I45" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I45" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>52</v>
       </c>
-      <c r="J45" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J45" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>59</v>
       </c>
-      <c r="K45" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K45" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
-      <c r="L45" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L45" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63.2000432877009</v>
       </c>
       <c r="M45">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>59.300010821925227</v>
       </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="8"/>
+        <v>16.75</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.75</v>
+      </c>
+      <c r="R45">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.819505757398652</v>
+      </c>
+      <c r="S45">
+        <f t="shared" ca="1" si="9"/>
+        <v>22.329876439349661</v>
+      </c>
+      <c r="U45" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="V45" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="W45" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="X45" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63.2000432877009</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" ca="1" si="14"/>
+        <v>59.300010821925227</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -31360,47 +32967,87 @@
         <v>82</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>69.25</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>73.75</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.75</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76.304238139736484</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>73.763559534934117</v>
       </c>
-      <c r="I46" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I46" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>51</v>
       </c>
-      <c r="J46" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J46" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>59</v>
       </c>
-      <c r="K46" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K46" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
-      <c r="L46" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L46" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63.305341601089999</v>
       </c>
       <c r="M46">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>59.076335400272498</v>
       </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="8"/>
+        <v>16.5</v>
+      </c>
+      <c r="P46">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.5</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.75</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.198212845801702</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ca="1" si="9"/>
+        <v>22.487053211450426</v>
+      </c>
+      <c r="U46" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="V46" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="W46" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="X46" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63.305341601089999</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" ca="1" si="14"/>
+        <v>59.076335400272498</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>83</v>
       </c>
@@ -31408,47 +33055,87 @@
         <v>84</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>74.5</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.5</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76.106108965584383</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>74.026527241396096</v>
       </c>
-      <c r="I47" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I47" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>53</v>
       </c>
-      <c r="J47" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J47" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
-      <c r="K47" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K47" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
-      <c r="L47" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L47" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63.6113708360663</v>
       </c>
       <c r="M47">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>60.152842709016575</v>
       </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="8"/>
+        <v>18.25</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.169782759448353</v>
+      </c>
+      <c r="S47">
+        <f t="shared" ca="1" si="9"/>
+        <v>23.479945689862088</v>
+      </c>
+      <c r="U47" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="V47" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="W47" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="X47" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63.6113708360663</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.152842709016575</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>85</v>
       </c>
@@ -31456,47 +33143,87 @@
         <v>86</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>80</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.25</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>81.737205721174178</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>79.746801430293544</v>
       </c>
-      <c r="I48" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I48" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>59</v>
       </c>
-      <c r="J48" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J48" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
-      <c r="K48" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K48" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
-      <c r="L48" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L48" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>70.675342158402501</v>
       </c>
       <c r="M48">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>66.668835539600622</v>
       </c>
+      <c r="O48">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.75</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.5</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.5</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.661669164846799</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ca="1" si="9"/>
+        <v>29.6029172912117</v>
+      </c>
+      <c r="U48" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="V48" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="W48" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="X48" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>70.675342158402501</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" ca="1" si="14"/>
+        <v>66.668835539600622</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>87</v>
       </c>
@@ -31504,47 +33231,87 @@
         <v>88</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>71.75</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.75</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>77.5</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>78.024878028612321</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75.756219507153077</v>
       </c>
-      <c r="I49" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I49" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>55</v>
       </c>
-      <c r="J49" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J49" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
-      <c r="K49" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K49" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>66</v>
       </c>
-      <c r="L49" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L49" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>66.345449868413198</v>
       </c>
       <c r="M49">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>62.586362467103299</v>
       </c>
+      <c r="O49">
+        <f t="shared" ca="1" si="8"/>
+        <v>19.25</v>
+      </c>
+      <c r="P49">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.25</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.217018792584327</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.929254698146082</v>
+      </c>
+      <c r="U49" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="V49" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="W49" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="X49" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>66.345449868413198</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" ca="1" si="14"/>
+        <v>62.586362467103299</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>89</v>
       </c>
@@ -31552,75 +33319,139 @@
         <v>90</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>69.5</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>74.25</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.75</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>76.337066723987164</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>73.959266680996791</v>
       </c>
-      <c r="I50" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I50" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>52</v>
       </c>
-      <c r="J50" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J50" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
-      <c r="K50" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K50" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
-      <c r="L50" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L50" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>63.876050065787297</v>
       </c>
       <c r="M50">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>59.719012516446824</v>
       </c>
+      <c r="O50">
+        <f t="shared" ca="1" si="8"/>
+        <v>17.5</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.5</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.114432843121726</v>
+      </c>
+      <c r="S50">
+        <f t="shared" ca="1" si="9"/>
+        <v>23.028608210780433</v>
+      </c>
+      <c r="U50" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="V50" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="W50" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="X50" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>63.876050065787297</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" ca="1" si="14"/>
+        <v>59.719012516446824</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="2"/>
       <c r="C51" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="F51" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="G51" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="O51" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>91</v>
       </c>
@@ -31628,53 +33459,93 @@
         <v>95</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>70.75</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>75.5</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>77.25</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>77.5739172124959</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>75.268479303123968</v>
       </c>
-      <c r="I52" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I52" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>54</v>
       </c>
-      <c r="J52" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J52" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-      <c r="K52" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K52" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>65</v>
       </c>
-      <c r="L52" s="62">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L52" s="44">
+        <f t="shared" ca="1" si="6"/>
         <v>65.344946961894195</v>
       </c>
       <c r="M52">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>61.586236740473552</v>
       </c>
+      <c r="O52">
+        <f t="shared" ca="1" si="8"/>
+        <v>18.5</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.25</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.75</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.568087407886026</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.267021851971506</v>
+      </c>
+      <c r="U52" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="V52" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="W52" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="X52" s="44">
+        <f t="shared" ca="1" si="12"/>
+        <v>65.344946961894195</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" ref="Y52" ca="1" si="15">AVERAGE(U52:X52)</f>
+        <v>61.586236740473552</v>
+      </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
